--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2581.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2581.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8590828471062466</v>
+        <v>1.228090882301331</v>
       </c>
       <c r="B1">
-        <v>1.359464530902189</v>
+        <v>5.544131278991699</v>
       </c>
       <c r="C1">
-        <v>3.036275485664318</v>
+        <v>3.719323396682739</v>
       </c>
       <c r="D1">
-        <v>2.290350809730065</v>
+        <v>0.9812163710594177</v>
       </c>
       <c r="E1">
-        <v>0.9419674055060492</v>
+        <v>0.627245306968689</v>
       </c>
     </row>
   </sheetData>
